--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>What?</t>
   </si>
@@ -101,6 +101,25 @@
   <si>
     <t>http://www.transtats.bts.gov/DL_SelectFields.asp?Table_ID=236&amp;DB_Short_Name=On-Time
 write a script that gets the data from the website</t>
+  </si>
+  <si>
+    <t>Tue, 24.11</t>
+  </si>
+  <si>
+    <t>Tue, 24.12</t>
+  </si>
+  <si>
+    <t>Rankings (in terms of delay time)
+10 top airlines / 10 worst airlines
+10 top airports / 10 worst airports
+10 top combination / 10 worst combination</t>
+  </si>
+  <si>
+    <t>Th, 26.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -777,7 +796,7 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,17 +866,30 @@
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="21"/>
@@ -867,7 +899,9 @@
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="H5" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>

--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>What?</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Tue, 24.11</t>
-  </si>
-  <si>
-    <t>Tue, 24.12</t>
   </si>
   <si>
     <t>Rankings (in terms of delay time)
@@ -120,6 +117,46 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>Tue, 24.11
+Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue, 24.11
+</t>
+  </si>
+  <si>
+    <t>sample small dataset out of original data</t>
+  </si>
+  <si>
+    <t>Wed, 25.11</t>
+  </si>
+  <si>
+    <t>restrict dataset to active airlines only</t>
+  </si>
+  <si>
+    <t>think of way to deal with airlines that merged (i.e. United/Continental)</t>
+  </si>
+  <si>
+    <t>get information which airlines merged the last years</t>
+  </si>
+  <si>
+    <t>think of mathematical model, in order to predict 
+(a) what is the best airline
+(b) delay time for given input data</t>
+  </si>
+  <si>
+    <t>Fr, 28.11.</t>
+  </si>
+  <si>
+    <t>download &amp; convert data</t>
+  </si>
+  <si>
+    <t>create first model for delay time</t>
+  </si>
+  <si>
+    <t>create first model for best airline</t>
   </si>
 </sst>
 </file>
@@ -149,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +265,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -295,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -305,6 +360,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -354,6 +412,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -631,67 +701,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -758,6 +828,8 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="S3" s="2" t="s">
         <v>2</v>
       </c>
@@ -766,26 +838,50 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="P4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="Q5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="R5" s="3"/>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -796,7 +892,7 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,7 +901,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -813,46 +909,46 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="L3" t="s">
@@ -866,1152 +962,1173 @@
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="22" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="C5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="H5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
     <row r="30" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
     </row>
     <row r="41" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
     </row>
     <row r="44" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
     </row>
     <row r="46" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
     </row>
     <row r="47" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
     </row>
     <row r="48" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
     </row>
     <row r="49" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
     </row>
     <row r="50" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
     </row>
     <row r="51" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
     </row>
     <row r="52" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
     </row>
     <row r="53" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
     </row>
     <row r="55" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
     </row>
     <row r="58" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
     </row>
     <row r="60" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
     </row>
     <row r="62" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
     </row>
     <row r="67" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
     </row>
     <row r="70" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
     </row>
     <row r="72" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
     </row>
     <row r="73" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
     </row>
     <row r="76" spans="3:10" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="23"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="23"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="23"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="23"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="23"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="23"/>
+      <c r="J114" s="23"/>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="23"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>What?</t>
   </si>
@@ -166,6 +166,12 @@
   </si>
   <si>
     <t>Do research on external weather data</t>
+  </si>
+  <si>
+    <t>Done. "Small" is still pretty big (ca. 2GB), can adjust it if necessary. Please use script as outlined on Slack.</t>
+  </si>
+  <si>
+    <t>Done. No relevant mergers found. Everything else integrated in the data reduction/preparation script.</t>
   </si>
 </sst>
 </file>
@@ -416,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -437,10 +446,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,28 +464,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,7 +752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,12 +883,12 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112">
+    <row r="3" spans="1:19" ht="105">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="S3" s="2" t="s">
         <v>2</v>
       </c>
@@ -891,40 +897,40 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="P4" s="16" t="s">
+      <c r="C4" s="16"/>
+      <c r="P4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="15" t="s">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="15"/>
+      <c r="S4" s="16"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="Q5" s="14" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="Q5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -949,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -964,26 +970,26 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="26"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="6" t="s">
@@ -1024,13 +1030,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="120">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1040,13 +1046,13 @@
       <c r="G4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -1058,11 +1064,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="90">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -1088,13 +1096,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="105">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -1112,11 +1120,13 @@
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="10"/>
@@ -1128,11 +1138,13 @@
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="10"/>

--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeonhardS/Documents/CSE/GIT/CS109/flightbbq/organization/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>What?</t>
   </si>
@@ -80,9 +85,6 @@
   </si>
   <si>
     <t>Due?</t>
-  </si>
-  <si>
-    <t>create an id for every flight (beware of changing flight numbers, and make it easily adressable by airline, route etc.)</t>
   </si>
   <si>
     <t>research based on data what plane serves a flight (plane model &amp; age)</t>
@@ -111,10 +113,6 @@
 Done</t>
   </si>
   <si>
-    <t xml:space="preserve">Tue, 24.11
-</t>
-  </si>
-  <si>
     <t>sample small dataset out of original data</t>
   </si>
   <si>
@@ -172,6 +170,78 @@
   </si>
   <si>
     <t>Done. No relevant mergers found. Everything else integrated in the data reduction/preparation script.</t>
+  </si>
+  <si>
+    <t>download data for key mappings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tue, 01.12. </t>
+  </si>
+  <si>
+    <t>Plot average times AirFrance/KLM and for Continental/United graphs and check if there are any changes in behaviour</t>
+  </si>
+  <si>
+    <t>Wed, 02.12.2012</t>
+  </si>
+  <si>
+    <t>write work done into Process notebook</t>
+  </si>
+  <si>
+    <t>Wed, 02.12.</t>
+  </si>
+  <si>
+    <t>fix the download file script --&gt; it is all january there is some error</t>
+  </si>
+  <si>
+    <t>add ipython chapter dummy files with outline structure</t>
+  </si>
+  <si>
+    <t>Thu, 03.12.</t>
+  </si>
+  <si>
+    <t>looking at the breakdown of delays (security delays / weather delays / …)</t>
+  </si>
+  <si>
+    <t>get weather data (snow height, amount of rain, type, …)</t>
+  </si>
+  <si>
+    <t>Th, 03.12</t>
+  </si>
+  <si>
+    <t>analysis of correlation / dependence between weather and data</t>
+  </si>
+  <si>
+    <t>Fr, 04.12.</t>
+  </si>
+  <si>
+    <t>Th, 03.12.</t>
+  </si>
+  <si>
+    <t>combination for routes (i.e. which route has best/worst delay times --&gt; do a top10/flop10 ranking)</t>
+  </si>
+  <si>
+    <t>support Estienne on model</t>
+  </si>
+  <si>
+    <t>Fr, 04.12</t>
+  </si>
+  <si>
+    <t>fit a Random forest model, neural network, linear regression to data (sparse it out if necessary --&gt; focus only on major airlines)</t>
+  </si>
+  <si>
+    <t>create map ("heatmap") visualization of airports &amp; delay times</t>
+  </si>
+  <si>
+    <t>Sa, 06.12.</t>
+  </si>
+  <si>
+    <t>evolution of airline average delay time over time (for 20 most popular airlines) --&gt; nice visualization</t>
+  </si>
+  <si>
+    <t>delay time per dollar for current flight (pick some route ie. New York &lt;-&gt; Chicago</t>
+  </si>
+  <si>
+    <t>Fr, 05.12.</t>
   </si>
 </sst>
 </file>
@@ -396,7 +466,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -479,13 +549,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -752,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,9 +839,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
@@ -824,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -883,7 +956,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="105">
+    <row r="3" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -893,12 +966,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="16"/>
       <c r="P4" s="17" t="s">
@@ -910,9 +983,9 @@
       </c>
       <c r="S4" s="16"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -923,9 +996,9 @@
       </c>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -943,11 +1016,6 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -955,21 +1023,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="13" width="21.83203125" customWidth="1"/>
+    <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>15</v>
       </c>
@@ -991,12 +1060,12 @@
       <c r="L2" s="30"/>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>19</v>
@@ -1005,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>19</v>
@@ -1014,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>19</v>
@@ -1023,172 +1092,239 @@
         <v>0</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="120">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="L4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="90">
-      <c r="B5" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="105">
-      <c r="B6" s="13" t="s">
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="H6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B7" s="13" t="s">
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B8" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="C8" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B9" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B10" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1199,10 +1335,14 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -1213,7 +1353,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1227,7 +1367,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1241,7 +1381,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1255,7 +1395,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1269,7 +1409,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1283,7 +1423,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1297,7 +1437,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1311,7 +1451,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1325,7 +1465,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1339,7 +1479,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1353,7 +1493,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1367,7 +1507,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1381,7 +1521,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1395,7 +1535,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1409,7 +1549,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1423,7 +1563,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1437,7 +1577,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1451,7 +1591,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1465,7 +1605,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1479,7 +1619,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1493,7 +1633,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1507,7 +1647,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1521,7 +1661,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1535,7 +1675,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1549,7 +1689,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1563,7 +1703,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1577,7 +1717,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1591,7 +1731,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1605,7 +1745,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1619,7 +1759,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1633,7 +1773,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1647,7 +1787,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1661,7 +1801,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1675,7 +1815,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1689,7 +1829,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1703,7 +1843,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1717,7 +1857,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1731,7 +1871,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1745,7 +1885,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1759,7 +1899,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1773,7 +1913,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1787,7 +1927,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1801,7 +1941,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1815,7 +1955,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -1829,7 +1969,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1843,7 +1983,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -1857,7 +1997,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -1871,7 +2011,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -1885,7 +2025,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -1899,7 +2039,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -1913,7 +2053,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -1927,7 +2067,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -1941,7 +2081,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -1955,7 +2095,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -1969,7 +2109,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -1983,7 +2123,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -1997,7 +2137,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2011,7 +2151,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2025,7 +2165,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2039,7 +2179,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2053,7 +2193,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2067,7 +2207,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2081,7 +2221,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2095,7 +2235,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2109,7 +2249,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2123,7 +2263,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2137,7 +2277,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2151,7 +2291,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2165,7 +2305,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2179,7 +2319,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2193,7 +2333,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2207,7 +2347,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2221,7 +2361,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2235,7 +2375,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2249,7 +2389,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2263,7 +2403,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2277,7 +2417,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2291,7 +2431,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2305,7 +2445,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2319,7 +2459,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2333,7 +2473,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2347,7 +2487,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2361,7 +2501,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2375,7 +2515,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2389,7 +2529,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2403,7 +2543,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2417,7 +2557,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2431,7 +2571,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2445,7 +2585,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2459,7 +2599,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2473,7 +2613,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2487,7 +2627,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2501,7 +2641,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -2515,7 +2655,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2529,7 +2669,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2543,7 +2683,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -2557,7 +2697,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -2571,7 +2711,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2585,7 +2725,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -2599,7 +2739,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2613,7 +2753,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -2627,7 +2767,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -2641,7 +2781,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -2655,7 +2795,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -2678,10 +2818,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>What?</t>
   </si>
@@ -495,6 +495,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -960,8 +960,8 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="S3" s="2" t="s">
         <v>2</v>
       </c>
@@ -970,40 +970,40 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="P4" s="17" t="s">
+      <c r="C4" s="17"/>
+      <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="16" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="16"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="Q5" s="15" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="Q5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="15"/>
+      <c r="R5" s="16"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,26 +1039,26 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
@@ -1215,14 +1215,16 @@
       <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>51</v>
       </c>
       <c r="K7" s="10" t="s">

--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeonhardS/Documents/CSE/GIT/CS109/flightbbq/organization/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
   <si>
     <t>What?</t>
   </si>
@@ -556,9 +551,9 @@
   <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -825,7 +820,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,9 +834,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
@@ -897,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -956,7 +951,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="112">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -966,7 +961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -983,7 +978,7 @@
       </c>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
@@ -996,7 +991,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
@@ -1016,6 +1011,11 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1023,22 +1023,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="13" width="21.83203125" customWidth="1"/>
     <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19">
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="L2" s="31"/>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="128">
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="80">
       <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="112">
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
@@ -1267,12 +1267,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1297,12 +1299,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="10"/>
@@ -1319,7 +1323,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1337,7 +1341,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
@@ -1355,7 +1359,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -1369,7 +1373,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1383,7 +1387,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1397,7 +1401,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1411,7 +1415,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1425,7 +1429,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1439,7 +1443,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1453,7 +1457,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1467,7 +1471,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1481,7 +1485,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1495,7 +1499,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1509,7 +1513,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1523,7 +1527,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1537,7 +1541,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1551,7 +1555,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1565,7 +1569,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1579,7 +1583,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1593,7 +1597,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1607,7 +1611,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1621,7 +1625,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1635,7 +1639,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1649,7 +1653,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1663,7 +1667,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1677,7 +1681,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1691,7 +1695,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1705,7 +1709,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1719,7 +1723,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1733,7 +1737,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1747,7 +1751,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1761,7 +1765,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1775,7 +1779,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1789,7 +1793,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1803,7 +1807,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1817,7 +1821,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1831,7 +1835,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1845,7 +1849,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1859,7 +1863,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1873,7 +1877,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1887,7 +1891,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1901,7 +1905,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1915,7 +1919,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1929,7 +1933,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1943,7 +1947,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1957,7 +1961,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -1971,7 +1975,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1985,7 +1989,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -1999,7 +2003,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2013,7 +2017,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -2027,7 +2031,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2041,7 +2045,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2055,7 +2059,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -2069,7 +2073,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2083,7 +2087,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2097,7 +2101,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2111,7 +2115,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2125,7 +2129,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2139,7 +2143,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2153,7 +2157,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2167,7 +2171,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2181,7 +2185,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2195,7 +2199,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2209,7 +2213,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2223,7 +2227,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2237,7 +2241,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2251,7 +2255,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2265,7 +2269,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2279,7 +2283,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2293,7 +2297,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2307,7 +2311,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2321,7 +2325,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2335,7 +2339,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2349,7 +2353,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2363,7 +2367,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2377,7 +2381,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2391,7 +2395,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2405,7 +2409,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2419,7 +2423,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2433,7 +2437,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2447,7 +2451,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2461,7 +2465,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2475,7 +2479,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2489,7 +2493,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2503,7 +2507,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2517,7 +2521,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2531,7 +2535,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2545,7 +2549,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2559,7 +2563,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2573,7 +2577,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2587,7 +2591,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2601,7 +2605,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2615,7 +2619,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2629,7 +2633,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2643,7 +2647,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -2657,7 +2661,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2671,7 +2675,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2685,7 +2689,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -2699,7 +2703,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -2713,7 +2717,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2727,7 +2731,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -2741,7 +2745,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2755,7 +2759,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -2769,7 +2773,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -2783,7 +2787,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -2797,7 +2801,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -2820,5 +2824,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>What?</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Fr, 05.12.</t>
+  </si>
+  <si>
+    <t>General Description of data</t>
+  </si>
+  <si>
+    <t>Done in 03_Exploration</t>
   </si>
 </sst>
 </file>
@@ -454,8 +460,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -548,11 +556,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -820,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -951,7 +961,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112">
+    <row r="3" spans="1:19" ht="105">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1023,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1033,12 +1043,12 @@
     <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="20">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19">
+    <row r="2" spans="1:13" ht="18">
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="128">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="120">
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="80">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="75">
       <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="112">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="105">
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1360,9 +1370,15 @@
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>

--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeonhardS/Documents/CSE/GIT/flightbbq/organization/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>What?</t>
   </si>
@@ -237,13 +242,34 @@
   </si>
   <si>
     <t>Fr, 05.12.</t>
+  </si>
+  <si>
+    <t>build downloadscript for weather data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beautify plots with seaborn / real airline names so that they are deliverable </t>
+  </si>
+  <si>
+    <t>So, 05.12.</t>
+  </si>
+  <si>
+    <t>layout first slides for video</t>
+  </si>
+  <si>
+    <t>Tue, 08.12.</t>
+  </si>
+  <si>
+    <t>work on Website / establish template</t>
+  </si>
+  <si>
+    <t>Mo, 07.12.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,6 +303,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,7 +495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -547,13 +581,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -820,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,9 +871,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
@@ -892,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -951,7 +988,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112">
+    <row r="3" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -961,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -978,7 +1015,7 @@
       </c>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
@@ -991,7 +1028,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
@@ -1011,11 +1048,6 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1023,22 +1055,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D10"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="13" width="21.83203125" customWidth="1"/>
     <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1092,7 @@
       <c r="L2" s="31"/>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="128">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1108,11 +1140,11 @@
       <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1134,7 +1166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="80">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
@@ -1151,11 +1183,13 @@
       <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="13" t="s">
@@ -1168,7 +1202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="112">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1235,7 +1269,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
@@ -1267,7 +1301,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
@@ -1299,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
@@ -1319,11 +1353,15 @@
       <c r="J10" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="M10" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1334,14 +1372,24 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="M11" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
@@ -1359,10 +1407,14 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>73</v>
+      </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -1373,7 +1425,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1387,7 +1439,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1401,7 +1453,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1415,7 +1467,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1429,7 +1481,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1443,7 +1495,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1457,7 +1509,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1471,7 +1523,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1485,7 +1537,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1499,7 +1551,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1513,7 +1565,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1527,7 +1579,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1541,7 +1593,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1555,7 +1607,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1569,7 +1621,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1583,7 +1635,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1597,7 +1649,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1611,7 +1663,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1625,7 +1677,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1639,7 +1691,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1653,7 +1705,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1667,7 +1719,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1681,7 +1733,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1695,7 +1747,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1709,7 +1761,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1723,7 +1775,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1737,7 +1789,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1751,7 +1803,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1765,7 +1817,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1779,7 +1831,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1793,7 +1845,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1807,7 +1859,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1821,7 +1873,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1835,7 +1887,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1849,7 +1901,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1863,7 +1915,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1877,7 +1929,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1891,7 +1943,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1905,7 +1957,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1919,7 +1971,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1933,7 +1985,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1947,7 +1999,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -1961,7 +2013,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -1975,7 +2027,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -1989,7 +2041,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -2003,7 +2055,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2017,7 +2069,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -2031,7 +2083,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2045,7 +2097,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2059,7 +2111,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -2073,7 +2125,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2087,7 +2139,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2101,7 +2153,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2115,7 +2167,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2129,7 +2181,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2143,7 +2195,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2157,7 +2209,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2171,7 +2223,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2185,7 +2237,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2199,7 +2251,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2213,7 +2265,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2227,7 +2279,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2241,7 +2293,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2255,7 +2307,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2269,7 +2321,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2283,7 +2335,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2297,7 +2349,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2311,7 +2363,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2325,7 +2377,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2339,7 +2391,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2353,7 +2405,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2367,7 +2419,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2381,7 +2433,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2395,7 +2447,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2409,7 +2461,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2423,7 +2475,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2437,7 +2489,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2451,7 +2503,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2465,7 +2517,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2479,7 +2531,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2493,7 +2545,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2507,7 +2559,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2521,7 +2573,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2535,7 +2587,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2549,7 +2601,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2563,7 +2615,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2577,7 +2629,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2591,7 +2643,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2605,7 +2657,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2619,7 +2671,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2633,7 +2685,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2647,7 +2699,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -2661,7 +2713,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2675,7 +2727,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2689,7 +2741,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -2703,7 +2755,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -2717,7 +2769,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2731,7 +2783,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -2745,7 +2797,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2759,7 +2811,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -2773,7 +2825,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -2787,7 +2839,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -2801,7 +2853,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -2824,10 +2876,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeonhardS/Documents/CSE/GIT/flightbbq/organization/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
   <si>
     <t>What?</t>
   </si>
@@ -263,6 +258,15 @@
   </si>
   <si>
     <t>Mo, 07.12.</t>
+  </si>
+  <si>
+    <t>Done (Leonhard)</t>
+  </si>
+  <si>
+    <t>Done for JFK</t>
+  </si>
+  <si>
+    <t>Finish first video draft</t>
   </si>
 </sst>
 </file>
@@ -588,9 +592,9 @@
   <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -857,7 +861,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -871,9 +875,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
@@ -929,7 +933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -988,7 +992,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="112">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1015,7 +1019,7 @@
       </c>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
@@ -1028,7 +1032,7 @@
       </c>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
@@ -1048,6 +1052,11 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1055,22 +1064,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="13" width="21.83203125" customWidth="1"/>
     <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="19">
       <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1101,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="128">
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="80">
       <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="112">
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
@@ -1361,12 +1370,14 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="B11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="10"/>
@@ -1389,12 +1400,14 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="B12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="10"/>
@@ -1407,12 +1420,14 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="B13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>74</v>
       </c>
       <c r="E13" s="10"/>
@@ -1425,10 +1440,14 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+      <c r="B14" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -1439,7 +1458,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1453,7 +1472,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1467,7 +1486,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1481,7 +1500,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1495,7 +1514,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1509,7 +1528,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1523,7 +1542,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1537,7 +1556,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1551,7 +1570,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1565,7 +1584,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1579,7 +1598,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1593,7 +1612,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1607,7 +1626,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1621,7 +1640,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1635,7 +1654,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1649,7 +1668,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1663,7 +1682,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1677,7 +1696,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1691,7 +1710,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1705,7 +1724,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1719,7 +1738,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1733,7 +1752,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1747,7 +1766,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1761,7 +1780,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1775,7 +1794,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1789,7 +1808,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1803,7 +1822,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1817,7 +1836,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1831,7 +1850,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1845,7 +1864,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1859,7 +1878,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1873,7 +1892,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1887,7 +1906,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1901,7 +1920,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1915,7 +1934,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1929,7 +1948,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1943,7 +1962,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1957,7 +1976,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1971,7 +1990,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1985,7 +2004,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1999,7 +2018,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -2013,7 +2032,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -2027,7 +2046,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -2041,7 +2060,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -2055,7 +2074,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2069,7 +2088,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -2083,7 +2102,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2097,7 +2116,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2111,7 +2130,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -2125,7 +2144,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2139,7 +2158,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2153,7 +2172,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2167,7 +2186,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2181,7 +2200,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2195,7 +2214,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2209,7 +2228,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2223,7 +2242,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2237,7 +2256,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2251,7 +2270,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2265,7 +2284,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2279,7 +2298,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2293,7 +2312,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2307,7 +2326,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2321,7 +2340,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2335,7 +2354,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2349,7 +2368,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2363,7 +2382,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2377,7 +2396,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2391,7 +2410,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2405,7 +2424,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2419,7 +2438,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2433,7 +2452,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2447,7 +2466,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2461,7 +2480,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2475,7 +2494,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2489,7 +2508,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2503,7 +2522,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2517,7 +2536,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2531,7 +2550,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2545,7 +2564,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2559,7 +2578,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2573,7 +2592,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2587,7 +2606,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2601,7 +2620,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2615,7 +2634,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2629,7 +2648,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2643,7 +2662,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2657,7 +2676,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2671,7 +2690,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2685,7 +2704,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2699,7 +2718,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -2713,7 +2732,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2727,7 +2746,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2741,7 +2760,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -2755,7 +2774,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -2769,7 +2788,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2783,7 +2802,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -2797,7 +2816,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2811,7 +2830,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -2825,7 +2844,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -2839,7 +2858,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -2853,7 +2872,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -2876,5 +2895,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeonhardS/Documents/CSE/GIT/flightbbq/organization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Estienne\Documents\CS109\flightbbq\organization\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15525" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>What?</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Fr, 04.12</t>
   </si>
   <si>
-    <t>fit a Random forest model, neural network, linear regression to data (sparse it out if necessary --&gt; focus only on major airlines)</t>
-  </si>
-  <si>
     <t>create map ("heatmap") visualization of airports &amp; delay times</t>
   </si>
   <si>
@@ -263,13 +260,37 @@
   </si>
   <si>
     <t>Mo, 07.12.</t>
+  </si>
+  <si>
+    <t>Data preprocessing for data prediction</t>
+  </si>
+  <si>
+    <t>Random forest dit</t>
+  </si>
+  <si>
+    <t>Neural network fir</t>
+  </si>
+  <si>
+    <t>Sat, 05, 12</t>
+  </si>
+  <si>
+    <t>Tu, 08.12.</t>
+  </si>
+  <si>
+    <t>Get microphone</t>
+  </si>
+  <si>
+    <t>Write the time line</t>
+  </si>
+  <si>
+    <t>Tu, 08, 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,14 +324,6 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -495,7 +508,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -525,9 +538,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -586,17 +596,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -871,9 +884,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
@@ -929,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -988,54 +1001,54 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="S3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="P4" s="19" t="s">
+      <c r="C4" s="17"/>
+      <c r="P4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="18" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="21" t="s">
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="Q5" s="17" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="Q5" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+      <c r="R5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1055,44 +1068,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="21.83203125" customWidth="1"/>
+    <col min="2" max="13" width="21.875" customWidth="1"/>
     <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="31" t="s">
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="33"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="126" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1140,11 +1153,13 @@
       <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1166,7 +1181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
@@ -1176,11 +1191,13 @@
       <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -1202,7 +1219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1236,7 +1253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
@@ -1279,11 +1296,13 @@
       <c r="D8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -1301,7 +1320,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
@@ -1312,28 +1331,28 @@
         <v>51</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
@@ -1343,25 +1362,31 @@
       <c r="D10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1369,27 +1394,31 @@
       <c r="D11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="H11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>58</v>
       </c>
@@ -1397,23 +1426,31 @@
       <c r="D12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>82</v>
+      </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1425,7 +1462,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -1439,7 +1476,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1453,7 +1490,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1467,7 +1504,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1481,7 +1518,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1495,7 +1532,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1509,7 +1546,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1523,7 +1560,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1537,7 +1574,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1551,7 +1588,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1565,7 +1602,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1579,7 +1616,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1593,7 +1630,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1607,7 +1644,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1621,7 +1658,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1635,7 +1672,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1649,7 +1686,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1663,7 +1700,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1677,7 +1714,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1691,7 +1728,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1705,7 +1742,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1719,7 +1756,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1733,7 +1770,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1747,7 +1784,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1761,7 +1798,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1775,7 +1812,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1789,7 +1826,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1803,7 +1840,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1817,7 +1854,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1831,7 +1868,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1845,7 +1882,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1859,7 +1896,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1873,7 +1910,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1887,7 +1924,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1901,7 +1938,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1915,7 +1952,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1929,7 +1966,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1943,7 +1980,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1957,7 +1994,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1971,7 +2008,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -1985,7 +2022,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -1999,7 +2036,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -2013,7 +2050,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -2027,7 +2064,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -2041,7 +2078,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -2055,7 +2092,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2069,7 +2106,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -2083,7 +2120,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2097,7 +2134,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2111,7 +2148,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -2125,7 +2162,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2139,7 +2176,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2153,7 +2190,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2167,7 +2204,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2181,7 +2218,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2195,7 +2232,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2209,7 +2246,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2223,7 +2260,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2237,7 +2274,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2251,7 +2288,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2265,7 +2302,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2279,7 +2316,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2293,7 +2330,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2307,7 +2344,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2321,7 +2358,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2335,7 +2372,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2349,7 +2386,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2363,7 +2400,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2377,7 +2414,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2391,7 +2428,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2405,7 +2442,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2419,7 +2456,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2433,7 +2470,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2447,7 +2484,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2461,7 +2498,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2475,7 +2512,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2489,7 +2526,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2503,7 +2540,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2517,7 +2554,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2531,7 +2568,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2545,7 +2582,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2559,7 +2596,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2573,7 +2610,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2587,7 +2624,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2601,7 +2638,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2615,7 +2652,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2629,7 +2666,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2643,7 +2680,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2657,7 +2694,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2671,7 +2708,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2685,7 +2722,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2699,7 +2736,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -2713,7 +2750,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2727,7 +2764,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2741,7 +2778,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -2755,7 +2792,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -2769,7 +2806,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2783,7 +2820,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -2797,7 +2834,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2811,7 +2848,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -2825,7 +2862,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -2839,7 +2876,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -2853,7 +2890,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>

--- a/organization/timeline.xlsx
+++ b/organization/timeline.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeonhardS/Documents/CSE/GIT/flightbbq/organization/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
   <si>
     <t>What?</t>
   </si>
@@ -592,9 +597,9 @@
   <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -861,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -875,9 +880,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
@@ -933,7 +938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -992,7 +997,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="112">
+    <row r="3" spans="1:19" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1024,7 @@
       </c>
       <c r="S4" s="18"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
@@ -1032,7 +1037,7 @@
       </c>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>36</v>
       </c>
@@ -1052,11 +1057,6 @@
     <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1064,22 +1064,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="13" width="21.83203125" customWidth="1"/>
     <col min="15" max="15" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="19">
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>15</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="128">
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>20</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="80">
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>27</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="112">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
@@ -1230,11 +1230,13 @@
       <c r="G6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
+      <c r="I6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -1245,7 +1247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>50</v>
       </c>
@@ -1342,7 +1344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>56</v>
       </c>
@@ -1400,7 +1402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1420,7 +1422,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>73</v>
       </c>
@@ -1440,7 +1442,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>79</v>
       </c>
@@ -1458,7 +1460,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="15" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1472,7 +1474,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1486,7 +1488,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="17" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1500,7 +1502,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="18" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1514,7 +1516,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="19" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1528,7 +1530,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="20" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1542,7 +1544,7 @@
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="21" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1556,7 +1558,7 @@
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="22" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1570,7 +1572,7 @@
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="23" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1584,7 +1586,7 @@
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="24" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1598,7 +1600,7 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="25" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1612,7 +1614,7 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="26" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1626,7 +1628,7 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="27" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1640,7 +1642,7 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="28" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1654,7 +1656,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="29" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1668,7 +1670,7 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="30" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1682,7 +1684,7 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="31" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -1696,7 +1698,7 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="32" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1710,7 +1712,7 @@
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
     </row>
-    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="33" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1724,7 +1726,7 @@
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="34" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -1738,7 +1740,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
     </row>
-    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="35" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -1752,7 +1754,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="36" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -1766,7 +1768,7 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
     </row>
-    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="37" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -1780,7 +1782,7 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
     </row>
-    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="38" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -1794,7 +1796,7 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="39" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -1808,7 +1810,7 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
     </row>
-    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="40" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -1822,7 +1824,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="41" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -1836,7 +1838,7 @@
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
     </row>
-    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="42" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1850,7 +1852,7 @@
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
     </row>
-    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="43" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -1864,7 +1866,7 @@
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
     </row>
-    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="44" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -1878,7 +1880,7 @@
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
     </row>
-    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="45" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1892,7 +1894,7 @@
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
     </row>
-    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="46" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -1906,7 +1908,7 @@
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
     </row>
-    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="47" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -1920,7 +1922,7 @@
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
     </row>
-    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="48" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -1934,7 +1936,7 @@
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
     </row>
-    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="49" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1948,7 +1950,7 @@
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
     </row>
-    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="50" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -1962,7 +1964,7 @@
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
     </row>
-    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="51" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -1976,7 +1978,7 @@
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
     </row>
-    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="52" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -1990,7 +1992,7 @@
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
     </row>
-    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="53" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -2004,7 +2006,7 @@
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
     </row>
-    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="54" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -2018,7 +2020,7 @@
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
     </row>
-    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="55" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -2032,7 +2034,7 @@
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
     </row>
-    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="56" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -2046,7 +2048,7 @@
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
     </row>
-    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="57" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -2060,7 +2062,7 @@
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
     </row>
-    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="58" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -2074,7 +2076,7 @@
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
     </row>
-    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="59" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -2088,7 +2090,7 @@
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
     </row>
-    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="60" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -2102,7 +2104,7 @@
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
     </row>
-    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="61" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -2116,7 +2118,7 @@
       <c r="L61" s="10"/>
       <c r="M61" s="10"/>
     </row>
-    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="62" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -2130,7 +2132,7 @@
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
     </row>
-    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="63" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -2144,7 +2146,7 @@
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
     </row>
-    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="64" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -2158,7 +2160,7 @@
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
     </row>
-    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="65" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -2172,7 +2174,7 @@
       <c r="L65" s="10"/>
       <c r="M65" s="10"/>
     </row>
-    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="66" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -2186,7 +2188,7 @@
       <c r="L66" s="10"/>
       <c r="M66" s="10"/>
     </row>
-    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="67" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -2200,7 +2202,7 @@
       <c r="L67" s="10"/>
       <c r="M67" s="10"/>
     </row>
-    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="68" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -2214,7 +2216,7 @@
       <c r="L68" s="10"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="69" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -2228,7 +2230,7 @@
       <c r="L69" s="10"/>
       <c r="M69" s="10"/>
     </row>
-    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="70" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -2242,7 +2244,7 @@
       <c r="L70" s="10"/>
       <c r="M70" s="10"/>
     </row>
-    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="71" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -2256,7 +2258,7 @@
       <c r="L71" s="10"/>
       <c r="M71" s="10"/>
     </row>
-    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="72" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -2270,7 +2272,7 @@
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
     </row>
-    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="73" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -2284,7 +2286,7 @@
       <c r="L73" s="10"/>
       <c r="M73" s="10"/>
     </row>
-    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="74" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -2298,7 +2300,7 @@
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
     </row>
-    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="75" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -2312,7 +2314,7 @@
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="76" spans="2:13" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -2326,7 +2328,7 @@
       <c r="L76" s="10"/>
       <c r="M76" s="10"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -2340,7 +2342,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -2354,7 +2356,7 @@
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
     </row>
-    <row r="79" spans="2:13">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -2368,7 +2370,7 @@
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
     </row>
-    <row r="80" spans="2:13">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2382,7 +2384,7 @@
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2396,7 +2398,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2410,7 +2412,7 @@
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2424,7 +2426,7 @@
       <c r="L83" s="11"/>
       <c r="M83" s="11"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2438,7 +2440,7 @@
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -2452,7 +2454,7 @@
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -2466,7 +2468,7 @@
       <c r="L86" s="11"/>
       <c r="M86" s="11"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -2480,7 +2482,7 @@
       <c r="L87" s="11"/>
       <c r="M87" s="11"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -2494,7 +2496,7 @@
       <c r="L88" s="11"/>
       <c r="M88" s="11"/>
     </row>
-    <row r="89" spans="2:13">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -2508,7 +2510,7 @@
       <c r="L89" s="11"/>
       <c r="M89" s="11"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2522,7 +2524,7 @@
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2536,7 +2538,7 @@
       <c r="L91" s="11"/>
       <c r="M91" s="11"/>
     </row>
-    <row r="92" spans="2:13">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2550,7 +2552,7 @@
       <c r="L92" s="11"/>
       <c r="M92" s="11"/>
     </row>
-    <row r="93" spans="2:13">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2564,7 +2566,7 @@
       <c r="L93" s="11"/>
       <c r="M93" s="11"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2578,7 +2580,7 @@
       <c r="L94" s="11"/>
       <c r="M94" s="11"/>
     </row>
-    <row r="95" spans="2:13">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -2592,7 +2594,7 @@
       <c r="L95" s="11"/>
       <c r="M95" s="11"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -2606,7 +2608,7 @@
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
     </row>
-    <row r="97" spans="2:13">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -2620,7 +2622,7 @@
       <c r="L97" s="11"/>
       <c r="M97" s="11"/>
     </row>
-    <row r="98" spans="2:13">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -2634,7 +2636,7 @@
       <c r="L98" s="11"/>
       <c r="M98" s="11"/>
     </row>
-    <row r="99" spans="2:13">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -2648,7 +2650,7 @@
       <c r="L99" s="11"/>
       <c r="M99" s="11"/>
     </row>
-    <row r="100" spans="2:13">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -2662,7 +2664,7 @@
       <c r="L100" s="11"/>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="2:13">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -2676,7 +2678,7 @@
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
     </row>
-    <row r="102" spans="2:13">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2690,7 +2692,7 @@
       <c r="L102" s="11"/>
       <c r="M102" s="11"/>
     </row>
-    <row r="103" spans="2:13">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2704,7 +2706,7 @@
       <c r="L103" s="11"/>
       <c r="M103" s="11"/>
     </row>
-    <row r="104" spans="2:13">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2718,7 +2720,7 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
     </row>
-    <row r="105" spans="2:13">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -2732,7 +2734,7 @@
       <c r="L105" s="11"/>
       <c r="M105" s="11"/>
     </row>
-    <row r="106" spans="2:13">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
@@ -2746,7 +2748,7 @@
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
     </row>
-    <row r="107" spans="2:13">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
@@ -2760,7 +2762,7 @@
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
     </row>
-    <row r="108" spans="2:13">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
@@ -2774,7 +2776,7 @@
       <c r="L108" s="11"/>
       <c r="M108" s="11"/>
     </row>
-    <row r="109" spans="2:13">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
@@ -2788,7 +2790,7 @@
       <c r="L109" s="11"/>
       <c r="M109" s="11"/>
     </row>
-    <row r="110" spans="2:13">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
@@ -2802,7 +2804,7 @@
       <c r="L110" s="11"/>
       <c r="M110" s="11"/>
     </row>
-    <row r="111" spans="2:13">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -2816,7 +2818,7 @@
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
     </row>
-    <row r="112" spans="2:13">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="11"/>
@@ -2830,7 +2832,7 @@
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
     </row>
-    <row r="113" spans="2:13">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
@@ -2844,7 +2846,7 @@
       <c r="L113" s="11"/>
       <c r="M113" s="11"/>
     </row>
-    <row r="114" spans="2:13">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
@@ -2858,7 +2860,7 @@
       <c r="L114" s="11"/>
       <c r="M114" s="11"/>
     </row>
-    <row r="115" spans="2:13">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
@@ -2872,7 +2874,7 @@
       <c r="L115" s="11"/>
       <c r="M115" s="11"/>
     </row>
-    <row r="116" spans="2:13">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
@@ -2895,10 +2897,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>